--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220418_110238.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220418_110238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
   <si>
     <t>사이트</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>플렉스엠</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>SSK</t>
@@ -2434,6 +2437,12 @@
       <c r="F48" t="s">
         <v>201</v>
       </c>
+      <c r="G48" t="s">
+        <v>255</v>
+      </c>
+      <c r="H48" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
@@ -2481,7 +2490,7 @@
         <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H50" t="s">
         <v>242</v>
@@ -2533,10 +2542,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H52" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2559,7 +2568,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H53" t="s">
         <v>242</v>
@@ -2585,10 +2594,10 @@
         <v>203</v>
       </c>
       <c r="G54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H54" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2611,7 +2620,7 @@
         <v>204</v>
       </c>
       <c r="G55" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H55" t="s">
         <v>242</v>
@@ -2689,7 +2698,7 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H58" t="s">
         <v>242</v>
@@ -2819,7 +2828,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H63" t="s">
         <v>242</v>
@@ -2845,10 +2854,10 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2871,7 +2880,7 @@
         <v>210</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H65" t="s">
         <v>242</v>
@@ -2948,6 +2957,12 @@
       <c r="F68" t="s">
         <v>212</v>
       </c>
+      <c r="G68" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
@@ -2995,7 +3010,7 @@
         <v>214</v>
       </c>
       <c r="G70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H70" t="s">
         <v>242</v>
@@ -3047,7 +3062,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H72" t="s">
         <v>242</v>
@@ -3177,7 +3192,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H77" t="s">
         <v>242</v>
@@ -3255,7 +3270,7 @@
         <v>49</v>
       </c>
       <c r="G80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H80" t="s">
         <v>242</v>
@@ -3281,7 +3296,7 @@
         <v>221</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H81" t="s">
         <v>242</v>
@@ -3307,7 +3322,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H82" t="s">
         <v>242</v>
@@ -3333,10 +3348,10 @@
         <v>222</v>
       </c>
       <c r="G83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H83" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3436,6 +3451,12 @@
       <c r="F87" t="s">
         <v>95</v>
       </c>
+      <c r="G87" t="s">
+        <v>244</v>
+      </c>
+      <c r="H87" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
@@ -3561,7 +3582,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H92" t="s">
         <v>242</v>
@@ -3587,7 +3608,7 @@
         <v>228</v>
       </c>
       <c r="G93" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H93" t="s">
         <v>242</v>
@@ -3639,7 +3660,7 @@
         <v>229</v>
       </c>
       <c r="G95" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H95" t="s">
         <v>242</v>
@@ -3665,7 +3686,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
         <v>242</v>
@@ -3691,7 +3712,7 @@
         <v>230</v>
       </c>
       <c r="G97" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H97" t="s">
         <v>242</v>
@@ -3795,7 +3816,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H101" t="s">
         <v>242</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220418_110238.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220418_110238.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-18</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220418_110238.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220418_110238.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="272">
   <si>
     <t>사이트</t>
   </si>
@@ -767,9 +767,6 @@
   </si>
   <si>
     <t>neuron music</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>HIGH UP</t>
@@ -2100,7 +2097,7 @@
         <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H35" t="s">
         <v>242</v>
@@ -2126,7 +2123,7 @@
         <v>196</v>
       </c>
       <c r="G36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
         <v>242</v>
@@ -2178,7 +2175,7 @@
         <v>46</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H38" t="s">
         <v>242</v>
@@ -2230,7 +2227,7 @@
         <v>48</v>
       </c>
       <c r="G40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H40" t="s">
         <v>242</v>
@@ -2256,7 +2253,7 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H41" t="s">
         <v>242</v>
@@ -2438,7 +2435,7 @@
         <v>201</v>
       </c>
       <c r="G48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H48" t="s">
         <v>242</v>
@@ -2490,7 +2487,7 @@
         <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H50" t="s">
         <v>242</v>
@@ -2542,10 +2539,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2568,7 +2565,7 @@
         <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H53" t="s">
         <v>242</v>
@@ -2594,10 +2591,10 @@
         <v>203</v>
       </c>
       <c r="G54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2620,7 +2617,7 @@
         <v>204</v>
       </c>
       <c r="G55" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H55" t="s">
         <v>242</v>
@@ -2672,7 +2669,7 @@
         <v>206</v>
       </c>
       <c r="G57" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H57" t="s">
         <v>242</v>
@@ -2698,7 +2695,7 @@
         <v>66</v>
       </c>
       <c r="G58" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H58" t="s">
         <v>242</v>
@@ -2776,7 +2773,7 @@
         <v>208</v>
       </c>
       <c r="G61" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H61" t="s">
         <v>242</v>
@@ -2828,7 +2825,7 @@
         <v>71</v>
       </c>
       <c r="G63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H63" t="s">
         <v>242</v>
@@ -2854,10 +2851,10 @@
         <v>72</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2880,7 +2877,7 @@
         <v>210</v>
       </c>
       <c r="G65" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H65" t="s">
         <v>242</v>
@@ -2958,7 +2955,7 @@
         <v>212</v>
       </c>
       <c r="G68" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H68" t="s">
         <v>242</v>
@@ -3010,7 +3007,7 @@
         <v>214</v>
       </c>
       <c r="G70" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H70" t="s">
         <v>242</v>
@@ -3062,7 +3059,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H72" t="s">
         <v>242</v>
@@ -3192,7 +3189,7 @@
         <v>85</v>
       </c>
       <c r="G77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H77" t="s">
         <v>242</v>
@@ -3244,7 +3241,7 @@
         <v>194</v>
       </c>
       <c r="G79" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H79" t="s">
         <v>242</v>
@@ -3270,7 +3267,7 @@
         <v>49</v>
       </c>
       <c r="G80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H80" t="s">
         <v>242</v>
@@ -3296,7 +3293,7 @@
         <v>221</v>
       </c>
       <c r="G81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H81" t="s">
         <v>242</v>
@@ -3322,7 +3319,7 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H82" t="s">
         <v>242</v>
@@ -3348,10 +3345,10 @@
         <v>222</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3504,7 +3501,7 @@
         <v>97</v>
       </c>
       <c r="G89" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H89" t="s">
         <v>242</v>
@@ -3582,7 +3579,7 @@
         <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H92" t="s">
         <v>242</v>
@@ -3608,7 +3605,7 @@
         <v>228</v>
       </c>
       <c r="G93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H93" t="s">
         <v>242</v>
@@ -3660,7 +3657,7 @@
         <v>229</v>
       </c>
       <c r="G95" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H95" t="s">
         <v>242</v>
@@ -3686,7 +3683,7 @@
         <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H96" t="s">
         <v>242</v>
@@ -3712,7 +3709,7 @@
         <v>230</v>
       </c>
       <c r="G97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H97" t="s">
         <v>242</v>
@@ -3816,7 +3813,7 @@
         <v>109</v>
       </c>
       <c r="G101" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H101" t="s">
         <v>242</v>
